--- a/outputs-HGR-r202/g__CAG-488.xlsx
+++ b/outputs-HGR-r202/g__CAG-488.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,7 +504,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>s__CAG-488 sp000434055(reject)</t>
+          <t>s__CAG-488 sp000434055</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>s__CAG-488 sp000434055(reject)</t>
+          <t>s__CAG-488 sp000434055</t>
         </is>
       </c>
     </row>
@@ -568,7 +568,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>s__CAG-488 sp000434055(reject)</t>
+          <t>s__CAG-488 sp000434055</t>
         </is>
       </c>
     </row>
@@ -600,7 +600,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>s__CAG-488 sp000434055(reject)</t>
+          <t>s__CAG-488 sp000434055</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>s__CAG-488 sp000434055(reject)</t>
+          <t>s__CAG-488 sp000434055</t>
         </is>
       </c>
     </row>
@@ -664,37 +664,69 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>s__CAG-488 sp000434055(reject)</t>
+          <t>s__CAG-488 sp000434055</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
+          <t>even_MAG-GUT7849.fa</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.5835341688783864</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.3668795720811762</v>
+      </c>
+      <c r="D8" t="n">
+        <v>5.365288035593365e-13</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.04958625903990078</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.5835341688783864</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>s__CAG-488 sp000434055</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>s__CAG-488 sp000434055</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
           <t>even_MAG-GUT7957.fa</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B9" t="n">
         <v>0.2461524665347953</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>0.7459924418415507</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>1.524127377214852e-13</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E9" t="n">
         <v>0.007855091623501563</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F9" t="n">
         <v>0.7459924418415507</v>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>s__CAG-488 sp000434915</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>s__CAG-488 sp000434915</t>
         </is>

--- a/outputs-HGR-r202/g__CAG-488.xlsx
+++ b/outputs-HGR-r202/g__CAG-488.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,6 +470,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -497,6 +502,11 @@
           <t>s__CAG-488 sp000434055</t>
         </is>
       </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>s__CAG-488 sp000434055</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -524,6 +534,11 @@
           <t>s__CAG-488 sp000434055</t>
         </is>
       </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>s__CAG-488 sp000434055</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -551,6 +566,11 @@
           <t>s__CAG-488 sp000434055</t>
         </is>
       </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>s__CAG-488 sp000434055</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -578,6 +598,11 @@
           <t>s__CAG-488 sp000434055</t>
         </is>
       </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>s__CAG-488 sp000434055</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -605,6 +630,11 @@
           <t>s__CAG-488 sp000434055</t>
         </is>
       </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>s__CAG-488 sp000434055</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -632,6 +662,11 @@
           <t>s__CAG-488 sp000434055</t>
         </is>
       </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>s__CAG-488 sp000434055</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -659,6 +694,11 @@
           <t>s__CAG-488 sp000434055</t>
         </is>
       </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>s__CAG-488 sp000434055</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -682,6 +722,11 @@
         <v>0.7459924418415507</v>
       </c>
       <c r="G9" t="inlineStr">
+        <is>
+          <t>s__CAG-488 sp000434915</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
         <is>
           <t>s__CAG-488 sp000434915</t>
         </is>

--- a/outputs-HGR-r202/g__CAG-488.xlsx
+++ b/outputs-HGR-r202/g__CAG-488.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,23 +479,23 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT16297.fa</t>
+          <t>even_MAG-GUT35824.fa</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4774275428478552</v>
+        <v>0.5216574234411326</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4295651310654111</v>
+        <v>0.4194389871013952</v>
       </c>
       <c r="D2" t="n">
-        <v>2.778862113391183e-13</v>
+        <v>5.746436104648522e-13</v>
       </c>
       <c r="E2" t="n">
-        <v>0.09300732608645577</v>
+        <v>0.05890358945689755</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4774275428478552</v>
+        <v>0.5216574234411326</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -511,23 +511,23 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT30319.fa</t>
+          <t>even_MAG-GUT40856.fa</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.5800677570495696</v>
+        <v>0.6221591638009313</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4077617881814298</v>
+        <v>0.354642531954924</v>
       </c>
       <c r="D3" t="n">
-        <v>4.089118992982648e-13</v>
+        <v>5.456334724934537e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>0.01217045476859179</v>
+        <v>0.02319830424359906</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5800677570495696</v>
+        <v>0.6221591638009313</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -543,23 +543,23 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT35824.fa</t>
+          <t>even_MAG-GUT4726.fa</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.5216574234411326</v>
+        <v>0.5875458234345443</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4194389871013952</v>
+        <v>0.3464547575432418</v>
       </c>
       <c r="D4" t="n">
-        <v>5.746436104648522e-13</v>
+        <v>4.133409617347307e-13</v>
       </c>
       <c r="E4" t="n">
-        <v>0.05890358945689755</v>
+        <v>0.06599941902180043</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5216574234411326</v>
+        <v>0.5875458234345443</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -575,23 +575,23 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT40856.fa</t>
+          <t>even_MAG-GUT5083.fa</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6221591638009313</v>
+        <v>0.6256946358675591</v>
       </c>
       <c r="C5" t="n">
-        <v>0.354642531954924</v>
+        <v>0.3396316149766092</v>
       </c>
       <c r="D5" t="n">
-        <v>5.456334724934537e-13</v>
+        <v>4.267924098993294e-13</v>
       </c>
       <c r="E5" t="n">
-        <v>0.02319830424359906</v>
+        <v>0.03467374915540484</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6221591638009313</v>
+        <v>0.6256946358675591</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -607,23 +607,23 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT4726.fa</t>
+          <t>even_MAG-GUT7849.fa</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.5875458234345443</v>
+        <v>0.5835341688783864</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3464547575432418</v>
+        <v>0.3668795720811762</v>
       </c>
       <c r="D6" t="n">
-        <v>4.133409617347307e-13</v>
+        <v>5.365288035593365e-13</v>
       </c>
       <c r="E6" t="n">
-        <v>0.06599941902180043</v>
+        <v>0.04958625903990078</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5875458234345443</v>
+        <v>0.5835341688783864</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -633,102 +633,6 @@
       <c r="H6" t="inlineStr">
         <is>
           <t>s__CAG-488 sp000434055</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT5083.fa</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>0.6256946358675591</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.3396316149766092</v>
-      </c>
-      <c r="D7" t="n">
-        <v>4.267924098993294e-13</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.03467374915540484</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.6256946358675591</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>s__CAG-488 sp000434055</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>s__CAG-488 sp000434055</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT7849.fa</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0.5835341688783864</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.3668795720811762</v>
-      </c>
-      <c r="D8" t="n">
-        <v>5.365288035593365e-13</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.04958625903990078</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.5835341688783864</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>s__CAG-488 sp000434055</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>s__CAG-488 sp000434055</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT7957.fa</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0.2461524665347953</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.7459924418415507</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1.524127377214852e-13</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.007855091623501563</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.7459924418415507</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>s__CAG-488 sp000434915</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>s__CAG-488 sp000434915</t>
         </is>
       </c>
     </row>
